--- a/SeleniumAutomation/TestData/Testdata.xlsx
+++ b/SeleniumAutomation/TestData/Testdata.xlsx
@@ -3,19 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Soundarya\eclipse-workspace\SeleniumAutomation\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C140FAC-8B2B-4840-9E86-B7D2E3F265CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D88BCAF3-3B00-448C-8409-372C8536B8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="690" windowWidth="15375" windowHeight="7875" xr2:uid="{174EDD79-6AEF-401D-9117-4DFEDD25AB8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{174EDD79-6AEF-401D-9117-4DFEDD25AB8C}"/>
   </bookViews>
   <sheets>
     <sheet name="loginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="checkoutInfoData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:F18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -79,6 +76,24 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>pstlcode</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>1234TS</t>
   </si>
 </sst>
 </file>
@@ -459,7 +474,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" activeCellId="1" sqref="D3 A1:XFD1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +569,76 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9997F28E-7AFC-448A-A1E5-00B123CE8DC6}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{72569377-EFFB-4D94-97C5-579AA82809DC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B30155-B713-4EA7-B101-D9A2C2B94D9B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{BE730D7B-3C75-4B88-8A45-E22FD71004B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
